--- a/Exc4/Шаблон_проектная работа_7 спринт.xlsx
+++ b/Exc4/Шаблон_проектная работа_7 спринт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitriysorotokin/YaPracticum/sprint-7/ya-sprint-07/Exc4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AAF6B-922A-7C46-A47F-E9EFAFD74B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DF483-D672-7643-9EEA-81BD64FB3C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="24560" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Роль </t>
   </si>
@@ -59,6 +59,26 @@
   </si>
   <si>
     <t>Просмотр и редактирование секретов</t>
+  </si>
+  <si>
+    <t>Владелец продукта</t>
+  </si>
+  <si>
+    <t>Бизнес-аналитик</t>
+  </si>
+  <si>
+    <t>profuct owner</t>
+  </si>
+  <si>
+    <t>analyst</t>
+  </si>
+  <si>
+    <t>В заданном неймспейсе:
+- чтение данных pod — get, watch</t>
+  </si>
+  <si>
+    <t>В заданном неймспейсе:
+- чтение данных pod — get, list</t>
   </si>
 </sst>
 </file>
@@ -373,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:G7"/>
+  <dimension ref="C4:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="13"/>
@@ -434,6 +454,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="3:7" ht="28">
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="28">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
